--- a/Backlogs Project 4.xlsx
+++ b/Backlogs Project 4.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>Category</t>
   </si>
@@ -47,21 +47,9 @@
     <t xml:space="preserve">Product Backlog </t>
   </si>
   <si>
-    <t>Score button</t>
-  </si>
-  <si>
-    <t>A moveable character</t>
-  </si>
-  <si>
-    <t>End game screen</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>Time estimation</t>
   </si>
   <si>
@@ -92,49 +80,7 @@
     <t>2h</t>
   </si>
   <si>
-    <t>The player can check the score of players through clicking on the score button</t>
-  </si>
-  <si>
-    <t>2.5h</t>
-  </si>
-  <si>
-    <t>2.6h</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
-    <t>As an user I must be able to have a start screen so that I can access all the features.</t>
-  </si>
-  <si>
-    <t>As an user I must be able to start a match so that I can play.</t>
-  </si>
-  <si>
-    <t>1. Make a start button.
-2. The button is located on the start screen.
-3. It leads you to the game page.</t>
-  </si>
-  <si>
-    <t>As an user I must be able to quit the game when I want.</t>
-  </si>
-  <si>
-    <t>1. Make a quit/stop button.
-2. The button is located on the I screen. Inside the setting menu.
-3. It closes the game.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. A screen that launches at the beginning. 
-2. It has 4 buttons.
-</t>
-  </si>
-  <si>
     <t>The player gets a screen that acts as main menu with 4 options that can be used to navigate as he launches the game.</t>
-  </si>
-  <si>
-    <t>The player can start the game with the start button. The screen where the player gets to play the game will appear.</t>
-  </si>
-  <si>
-    <t>The player can click on the quit button to exit the game. The game will get back to the main menu. On the main menu screen there is another Quit button which will shut down the game.</t>
   </si>
   <si>
     <t>1. Make a game rules button.
@@ -145,70 +91,140 @@
     <t>The player can read the rules. The  buttons are located and working accordingly.</t>
   </si>
   <si>
-    <t>As an user I want to control the character so that I can play.</t>
-  </si>
-  <si>
-    <t>1. Make a character (snake)
-2. Make it moveable
-3. The player can control it</t>
-  </si>
-  <si>
-    <t>The player can fully control the character as the game starts.</t>
-  </si>
-  <si>
-    <t>As an user I must be able to read the rules of the game so that I can understand the game.</t>
-  </si>
-  <si>
-    <t>As an user I must be able to check my score while playing and review the score so that check my highscore.</t>
+    <t>Random apples spawning</t>
+  </si>
+  <si>
+    <t>Bonus / buffs</t>
   </si>
   <si>
     <t>1. Make a high score button.
 2. The button is located on the main menu screen.
-3. A database might be needed.
+3. A database or something else to save data might be needed.
 4. Get a score counter in the game.</t>
   </si>
   <si>
-    <t>Class diagram</t>
-  </si>
-  <si>
-    <t>Main menu</t>
-  </si>
-  <si>
-    <t>Start button</t>
-  </si>
-  <si>
-    <t>Quit button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rules Button </t>
-  </si>
-  <si>
-    <t>Random apples spawning</t>
-  </si>
-  <si>
-    <t>Winning method</t>
-  </si>
-  <si>
-    <t>Losing method</t>
-  </si>
-  <si>
-    <t>Cross platform</t>
-  </si>
-  <si>
-    <t>Bonus / buffs</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>As a developer I want to know how the game will be developed through a class diagram so that I know what to code.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Find out what to code for a snake game
-2. Make a class diagram </t>
-  </si>
-  <si>
-    <t>All parts for the snake game code is in the diagram.</t>
+    <t>Windows / PC and android compatible</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>0.5h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>The player can fully control the character as the game starts. The head and tail of the snake acts accordingly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A screen that launches at the beginning. 
+2. It has a big title of the game Snake and 4 buttons: Start Game; Settings; High Score; Quit Game
+3. The 3 buttons lead to the other screens. Quit Game ends the program.
+</t>
+  </si>
+  <si>
+    <t>As a user I must be able to read the rules of the game so that I can understand the game.</t>
+  </si>
+  <si>
+    <t>The player can check the score of players through clicking on the score button. The buttons are located and working accordingly.</t>
+  </si>
+  <si>
+    <t>As a user I want a main menu that starts at the start of the program. 
+In the main menu there are buttons that I can use to navigate through the program: Start game, Settings and Rules screen, High Score screen and quit game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I want to change the difficulty of the game and to turn sound on or off and adjust other settings. </t>
+  </si>
+  <si>
+    <t>1. Make a Settings screen.
+2. The Settings button is located on the main enu screen and also in the right side of the in-game Snake screen. The settings screen must also be accesible with a key input while playing.
+3. It leads you to the Settings screen.
+4. In the Settings screen the user is able to turn sound on or off and read the rules.
+5. With the Back button the user will be brought back to the main menu or the in-game screen if the user is playing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The player is able to access the Settings screen. The player can adjust settings in the Settings screen and read the rules. </t>
+  </si>
+  <si>
+    <t>As a user I want to collect the apples so that I can get a higher score</t>
+  </si>
+  <si>
+    <t>As a user I need a map to play the Snake game on. The map should have borders: if the snake moves into a border, the game is over.</t>
+  </si>
+  <si>
+    <t>1. Create a draw class that draws the map.
+2. Give the map borders.
+3. Implement in the code that if the snake moves into the border, the game will be over</t>
+  </si>
+  <si>
+    <t>1. Write a code that spawns apples randomly in the map.
+2. Write a code that if Snake eats an apple, the score will increase and the snake will grow.</t>
+  </si>
+  <si>
+    <t>As a user I want to control the snake character in the playing map so that I can play the game.
+The Snake must grow larger each time it eats an apple to make the game difficult the longer you play. 
+If the snake moves to itself, the game will be over.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Make a character (snake)
+2. Make it moveable and the player can control it
+3. Write the code: The snake has a head and a tail. The tail follows the head.
+4. Write code: The snake grows when it eats an apple.
+5. Implement in the code that the game will be over if the snake moves in itself.
+</t>
+  </si>
+  <si>
+    <t>There is a map when the game starts. The Snake starts in the center of the map. There are borders on the map. Everyyhing works correctly as written in the Tasks.</t>
+  </si>
+  <si>
+    <t>Apples spawn in a random place inside the map. The Snake will grow and the scroe increases when the snake eats an apple.</t>
+  </si>
+  <si>
+    <t>Sprint 2 Backlog</t>
+  </si>
+  <si>
+    <t>Sprint 3 Backlog</t>
+  </si>
+  <si>
+    <t>Playing field/map with borders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screens: Main menu, In-Game screen, Settings / Rules screen, End game screen and High score screen.
+Buttons: Start game, Settings, High score, Quit game
+</t>
+  </si>
+  <si>
+    <t>Create moveable Snake character with head and tail that grows when eating apples</t>
+  </si>
+  <si>
+    <t>A score counter in the game. High score ranking system.</t>
+  </si>
+  <si>
+    <t>As a user I must be able to check my score while playing and review the score afterwards so that I can check my highscore.</t>
+  </si>
+  <si>
+    <t>Write the rules</t>
+  </si>
+  <si>
+    <t>As a user I want to play the game on my computer as well as on my phone.</t>
+  </si>
+  <si>
+    <t>1. First make the game android compatible.
+2. Make the game screen bigger to fit the size of the computer screen
+3. Make the program Windows compatible.</t>
+  </si>
+  <si>
+    <t>The game is playable on phone and computer and fully working and correctly.</t>
+  </si>
+  <si>
+    <t>Add sound / BGM</t>
+  </si>
+  <si>
+    <t>Add images / title image</t>
+  </si>
+  <si>
+    <t>Create settings menu inside the Settings Menu with difficulty modes, sound settings and rules in it</t>
   </si>
 </sst>
 </file>
@@ -276,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -299,6 +315,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -642,15 +664,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="72.28515625" customWidth="1"/>
+    <col min="2" max="2" width="93" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -661,10 +683,10 @@
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>0</v>
@@ -682,130 +704,139 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>42</v>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
         <v>15</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -813,13 +844,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
         <v>15</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -827,59 +858,38 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
         <v>15</v>
       </c>
+      <c r="G13" s="14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="5"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -891,7 +901,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F13:F14"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,48 +914,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>55</v>
-      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -954,23 +949,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="2" max="2" width="119.140625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
+    <col min="5" max="5" width="65.28515625" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -979,125 +974,125 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="13" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -1105,21 +1100,60 @@
         <v>36</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="8"/>
+      <c r="F9" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1132,7 +1166,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1145,7 +1179,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="6" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1154,22 +1188,22 @@
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Backlogs Project 4.xlsx
+++ b/Backlogs Project 4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7785" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7785" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>Category</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Write the rules</t>
   </si>
   <si>
-    <t>As a user I want to play the game on my computer as well as on my phone.</t>
-  </si>
-  <si>
     <t>1. First make the game android compatible.
 2. Make the game screen bigger to fit the size of the computer screen
 3. Make the program Windows compatible.</t>
@@ -225,6 +222,45 @@
   </si>
   <si>
     <t>Create settings menu inside the Settings Menu with difficulty modes, sound settings and rules in it</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>As a user I would like to get bonus points or buffs to have a more interesting game.</t>
+  </si>
+  <si>
+    <t>1. Create a special apple that gives more points to the player
+2. Adjust that the apple is more rare than normal apples</t>
+  </si>
+  <si>
+    <t>0.2h</t>
+  </si>
+  <si>
+    <t>As a user I would like to have music or sound effects so that I can enjoy the game more.</t>
+  </si>
+  <si>
+    <t>Rare apples spawn rarely in the map. The apples give bonusses to the player if the player gets the special apples</t>
+  </si>
+  <si>
+    <t>1. Find Sound effects or music on the Internet
+2. Implement in code for sound in program.</t>
+  </si>
+  <si>
+    <t>1. Create images on paint or edit images from the Internet
+2. Implement in the program Main Menu for title</t>
+  </si>
+  <si>
+    <t>As a user I would like to have images (title) so that the game looks nicer and more attracting to play.</t>
+  </si>
+  <si>
+    <t>As a user I want to play the game on my computer as well as on my phone so that I can play wherever and however I want.</t>
+  </si>
+  <si>
+    <t>The game main menu has an image.</t>
+  </si>
+  <si>
+    <t>The game has SFX and music.</t>
   </si>
 </sst>
 </file>
@@ -292,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -321,6 +357,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +712,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,27 +757,27 @@
         <v>46</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="14"/>
+      <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
@@ -819,10 +864,10 @@
       <c r="D10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
@@ -844,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>15</v>
@@ -858,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>15</v>
@@ -951,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,46 +1037,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>3</v>
@@ -1130,26 +1135,6 @@
       </c>
       <c r="F9" s="12" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1163,15 +1148,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="120.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
     <col min="6" max="6" width="22.85546875" customWidth="1"/>
@@ -1206,6 +1191,148 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Backlogs Project 4.xlsx
+++ b/Backlogs Project 4.xlsx
@@ -712,7 +712,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,10 +789,10 @@
       <c r="D5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
@@ -997,7 +997,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,26 +1037,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>4</v>
@@ -1151,7 +1131,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,8 +1289,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>

--- a/Backlogs Project 4.xlsx
+++ b/Backlogs Project 4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rogier\Documenten\project-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maher\OneDrive\Documents\GitHub\project-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7785" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -369,7 +369,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -413,9 +413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -453,7 +453,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -559,7 +559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,7 +787,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
@@ -997,7 +997,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1297,7 +1297,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>24</v>
